--- a/reverseprimer-v3_17.xlsx
+++ b/reverseprimer-v3_17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_17" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R1537-TTGCTCAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCTCAAGGGTCTCGTGGGCTCGG</t>
+    <t>R1537-GCTTGCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGCAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R1538-CTGTACCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTACCTAGGTCTCGTGGGCTCGG</t>
+    <t>R1538-AGATCAGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCAGACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R1539-ACACTCGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACTCGACTGTCTCGTGGGCTCGG</t>
+    <t>R1539-GTCACTAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACTAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R1540-CACAGAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACAGAGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1540-CAACAGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAGGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R1541-TTGGAAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGAAGTGTGTCTCGTGGGCTCGG</t>
+    <t>R1541-CTCACTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCACTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R1542-TGTCTGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTGTTCGGTCTCGTGGGCTCGG</t>
+    <t>R1542-ACCAGCTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAGCTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R1543-AGTAGTGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1543-TGATGAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGAGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R1544-CGTTCCATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTCCATGAGTCTCGTGGGCTCGG</t>
+    <t>R1544-ACACCTTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCTTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R1545-TGAACATGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACATGCAGTCTCGTGGGCTCGG</t>
+    <t>R1545-GGTGATCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGATCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R1546-TGGAAGCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGAAGCTGTGTCTCGTGGGCTCGG</t>
+    <t>R1546-GGAGTTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGTTGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R1547-ACGAAGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAAGACAGGTCTCGTGGGCTCGG</t>
+    <t>R1547-GACTAGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTAGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R1548-AAGTGACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGACCTTGTCTCGTGGGCTCGG</t>
+    <t>R1548-CCATCTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATCTACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R1549-ATCGTTCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTTCATCGTCTCGTGGGCTCGG</t>
+    <t>R1549-AACAACACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R1550-ATCAAGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAAGTCACGTCTCGTGGGCTCGG</t>
+    <t>R1550-GGTTGACCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTGACCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R1551-GAAGCAACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCAACTAGTCTCGTGGGCTCGG</t>
+    <t>R1551-TAGAAGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R1552-GAACCTCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCTCAAGGTCTCGTGGGCTCGG</t>
+    <t>R1552-TACTTGGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTTGGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R1553-GACTTCCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTTCCTACGTCTCGTGGGCTCGG</t>
+    <t>R1553-AACTGACAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTGACAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R1554-GCTAGACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGACGTTGTCTCGTGGGCTCGG</t>
+    <t>R1554-ACAGACATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGACATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R1555-CTGTGCTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGTGCTTCTGTCTCGTGGGCTCGG</t>
+    <t>R1555-AACACCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R1556-AGATGCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGCATGCGTCTCGTGGGCTCGG</t>
+    <t>R1556-ATGGTCTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTCTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R1557-AGTGATGCTT</t>
+    <t>R1557-ACATCTGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCTGGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R1558-ATCGAAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAAGATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R1559-TTGGAGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGAGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R1560-GTGTAGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTAGTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R1561-TTCACCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACCACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R1562-CGTACAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTACAGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R1563-TGAGGTGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGGTGAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R1564-GATCTGTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTGTGGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R1565-CAAGGTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGGTGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R1566-TAGTCTACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTACAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R1567-GACCTTCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCTTCATCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R1568-TGAGATCGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGATCGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R1569-CGATGCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATGCACAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R1570-AGCAGGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAGGAGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R1571-GCTCGTTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTCGTTCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R1572-AGTGATGCTT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATAGTGATGCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R1558-CAGTGTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTGTCCTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R1559-GTCACAACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACAACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R1560-TGTCTCGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCGAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R1561-AAGGAGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGAGGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R1562-TACTAGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTAGTCGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R1563-TAGGTACGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTACGACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R1564-ATCAGAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGAGGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R1565-TCTCTGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTGTGCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R1566-AACAGTGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTGTGCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R1567-CAAGATCTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGATCTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R1568-CCATCTACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCATCTACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R1569-AAGAAGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGAGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R1570-TTCACTGCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCACTGCATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R1571-CTCTCAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTCAGATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R1572-AACCTCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTCACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R1573-CTGCTAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCTAGTACGTCTCGTGGGCTCGG</t>
+    <t>R1573-TCAGACTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGACTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R1574-ATCCAAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCAAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R1574-ACTACCTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTACCTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R1575-AACTCCATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCCATCCGTCTCGTGGGCTCGG</t>
+    <t>R1575-AACAGAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGAGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R1576-AGTGACGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGACGACAGTCTCGTGGGCTCGG</t>
+    <t>R1576-TTGGTAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R1577-AGTAGGTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGGTCAGGTCTCGTGGGCTCGG</t>
+    <t>R1577-GACCTTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACCTTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R1578-TTCGTAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTAGTCGGTCTCGTGGGCTCGG</t>
+    <t>R1578-AGGTGTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTGTCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R1579-CCACTAGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCACTAGAAGGTCTCGTGGGCTCGG</t>
+    <t>R1579-TACACCATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACCATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R1580-AGAGGTTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGGTTGAGGTCTCGTGGGCTCGG</t>
+    <t>R1580-AGACATCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACATCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R1581-ACAAGAGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGAGCACGTCTCGTGGGCTCGG</t>
+    <t>R1581-TAGTCTCGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTCGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R1582-TTCCATGTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCATGTGCGTCTCGTGGGCTCGG</t>
+    <t>R1582-ATCGAGAACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGAGAACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R1583-GCTGTACCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTGTACCTAGTCTCGTGGGCTCGG</t>
+    <t>R1583-GGATCCACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCCACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R1584-TCCATGCACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCATGCACTGTCTCGTGGGCTCGG</t>
+    <t>R1584-GTTGCAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGCAACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R1585-GGTACAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACAGTCAGTCTCGTGGGCTCGG</t>
+    <t>R1585-GTGATCACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGATCACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R1586-TGCAACTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAACTCTCGTCTCGTGGGCTCGG</t>
+    <t>R1586-CTACTCCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACTCCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R1587-GATGTCTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTCTCTGGTCTCGTGGGCTCGG</t>
+    <t>R1587-GCATGTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R1588-GCAAGTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTCCTTGTCTCGTGGGCTCGG</t>
+    <t>R1588-TGATCTACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCTACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R1589-AGAGAGTGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAGTGACGTCTCGTGGGCTCGG</t>
+    <t>R1589-CAGGACACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGACACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R1590-AACCACGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCACGAGAGTCTCGTGGGCTCGG</t>
+    <t>R1590-TTGTCTCCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTCTCCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R1591-TCTGCAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGCAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R1591-ACAAGACACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGACACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R1592-GTACTTGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTTGGAGGTCTCGTGGGCTCGG</t>
+    <t>R1592-TGGAGTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R1593-TCGTCTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R1593-AGGACTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGACTAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R1594-TTGATGTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGATGTGGTGTCTCGTGGGCTCGG</t>
+    <t>R1594-GGAGTGACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGAGTGACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R1595-CTCTAGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTAGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R1595-CAGTACTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTACTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R1596-ATCCATGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCATGTAGGTCTCGTGGGCTCGG</t>
+    <t>R1596-TACTGCATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTGCATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R1597-ACTGCAACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGCAACTTGTCTCGTGGGCTCGG</t>
+    <t>R1597-AGATCACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCACGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R1598-GACCTGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACCTGATGAGTCTCGTGGGCTCGG</t>
+    <t>R1598-AACAGCTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAGCTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R1599-ACAAGTCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGTCTCCGTCTCGTGGGCTCGG</t>
+    <t>R1599-TACGAGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGAGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R1600-GAAGCATGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCATGTGGTCTCGTGGGCTCGG</t>
+    <t>R1600-CCTTGACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTGACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R1601-GATCGTCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCGTCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1601-GTAGGTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGTGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R1602-TTGAACTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAACTAGCGTCTCGTGGGCTCGG</t>
+    <t>R1602-ATGACCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACCAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R1603-CTAGATGCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGATGCTCGTCTCGTGGGCTCGG</t>
+    <t>R1603-ACAGTTGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTTGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R1604-AACGTGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R1604-TGAGCTGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGCTGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R1605-CTCTAGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTAGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R1605-GAAGAAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R1606-GCAACCTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAACCTGTAGTCTCGTGGGCTCGG</t>
+    <t>R1606-ACTGAGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAGTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R1607-CTAGCTGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCTGGTTGTCTCGTGGGCTCGG</t>
+    <t>R1607-TACCACAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCACAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R1608-TTGTTCGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTTCGAGAGTCTCGTGGGCTCGG</t>
+    <t>R1608-TGACCTTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCTTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R1609-GACAGGTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAGGTGATGTCTCGTGGGCTCGG</t>
+    <t>R1609-GAAGACCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGACCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R1610-CTTCTCCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCTCCTCTGTCTCGTGGGCTCGG</t>
+    <t>R1610-GGTTCTTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTCTTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R1611-ACTCTCCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTCCAAGGTCTCGTGGGCTCGG</t>
+    <t>R1611-ATCCTAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTAGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R1612-AGGTCTTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTTCCTGTCTCGTGGGCTCGG</t>
+    <t>R1612-GATGATGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGATGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R1613-TGAGTACTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTACTACGTCTCGTGGGCTCGG</t>
+    <t>R1613-TGACAGACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACAGACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R1614-ATGTGGTACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGGTACTGTCTCGTGGGCTCGG</t>
+    <t>R1614-CATCGTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCGTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R1615-ACCTCTAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCTAGCAGTCTCGTGGGCTCGG</t>
+    <t>R1615-TGTGACATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGACATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R1616-GATGTCAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGTCAGACGTCTCGTGGGCTCGG</t>
+    <t>R1616-CGACTTCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACTTCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R1617-ATCACAGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCACAGAGGGTCTCGTGGGCTCGG</t>
+    <t>R1617-ATGGTTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTTCTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R1618-CGATCTAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATCTAGTTGTCTCGTGGGCTCGG</t>
+    <t>R1618-TGCATCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCATCAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R1619-GTTGTGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGTGAAGGGTCTCGTGGGCTCGG</t>
+    <t>R1619-TAGCTGGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R1620-AGACACGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACACGTGAGTCTCGTGGGCTCGG</t>
+    <t>R1620-TCGATCAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGATCAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R1621-TTCCAGTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCAGTAGCGTCTCGTGGGCTCGG</t>
+    <t>R1621-TCGTGGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGGTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R1622-GTGCATGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCATGGATGTCTCGTGGGCTCGG</t>
+    <t>R1622-AGCACGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCACGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R1623-CTTGAGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGAGAGTAGTCTCGTGGGCTCGG</t>
+    <t>R1623-AAGCATCCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCATCCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R1624-ACTACACAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACACAGGGTCTCGTGGGCTCGG</t>
+    <t>R1624-TGCACCTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCACCTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R1625-CTACGTTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACGTTCCTGTCTCGTGGGCTCGG</t>
+    <t>R1625-TTGAAGGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAAGGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R1626-ACGTCGAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCGAAGTGTCTCGTGGGCTCGG</t>
+    <t>R1626-AACAAGATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAAGATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R1627-TAGCACATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCACATGAGTCTCGTGGGCTCGG</t>
+    <t>R1627-ACGATCTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGATCTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R1628-AACCAGTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCAGTACAGTCTCGTGGGCTCGG</t>
+    <t>R1628-AAGGTTGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTTGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R1629-GAACAACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAACACAGTCTCGTGGGCTCGG</t>
+    <t>R1629-GCTAGTACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGTACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R1630-TCATCGACTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCGACTCGTCTCGTGGGCTCGG</t>
+    <t>R1630-TCAGCAACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGCAACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R1631-AAGTTGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTTGCTTGGTCTCGTGGGCTCGG</t>
+    <t>R1631-TCGTAGGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTAGGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R1632-CTTCAACCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAACCATGTCTCGTGGGCTCGG</t>
+    <t>R1632-AACGTACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTACTACGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
